--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_6_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2251125.073181036</v>
+        <v>-2254176.317134877</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>151.0108140474361</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.2757289560327</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,25 +820,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>94.62332623081497</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>37.07115149839501</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,16 +953,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>341.2578399936063</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>196.7137624569853</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>109.7756561963045</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>131.1264177924943</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.0502568735976</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>43.54424566903386</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>106.0725670814544</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>122.1497763150771</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -1312,7 +1312,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.2205257453333</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>126.8772582534102</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>67.33742371513249</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>88.99634965464209</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.42567912201456</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>254.2525361082</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>42.6780462830629</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>49.28245334133518</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>141.7411607669885</v>
+        <v>111.360462416851</v>
       </c>
       <c r="H25" t="n">
-        <v>40.0081268354124</v>
+        <v>120.470367422281</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>72.06777291779829</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2722,7 +2722,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308926</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652687</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261736</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545294</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3244,16 +3244,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1421.217123115521</v>
+        <v>1280.556556803303</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>911.5940398628911</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>911.5940398628911</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>911.5940398628911</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>500.6081350732836</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>500.6081350732836</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>173.4134151092864</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.217123115521</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y2" t="n">
-        <v>1421.217123115521</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>285.8510101265798</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="C4" t="n">
-        <v>285.8510101265798</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245972</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245972</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245972</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="X4" t="n">
-        <v>285.8510101265798</v>
+        <v>690.6833766322978</v>
       </c>
       <c r="Y4" t="n">
-        <v>285.8510101265798</v>
+        <v>690.6833766322978</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.778685247039</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4601,16 +4601,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>1317.778685247039</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X5" t="n">
-        <v>1317.778685247039</v>
+        <v>1794.845691314469</v>
       </c>
       <c r="Y5" t="n">
-        <v>1317.778685247039</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>439.6809052858516</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>439.6809052858516</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>439.6809052858516</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W7" t="n">
-        <v>439.6809052858516</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X7" t="n">
-        <v>211.6913543878343</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y7" t="n">
-        <v>211.6913543878343</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1933.544000781331</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>1564.581483840919</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>1206.315785234169</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>1206.315785234169</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>795.3298804445612</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4814,7 +4814,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2653.165004483845</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2653.165004483845</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2653.165004483845</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2399.403219121936</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2068.340331778365</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1715.571676508251</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="9">
@@ -4887,10 +4887,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.820796875036</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="C10" t="n">
-        <v>500.820796875036</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="D10" t="n">
-        <v>500.820796875036</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="E10" t="n">
-        <v>500.820796875036</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.820796875036</v>
+        <v>471.4038777286579</v>
       </c>
     </row>
     <row r="11">
@@ -5021,46 +5021,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M11" t="n">
-        <v>2330.649739272054</v>
+        <v>2750.971543384381</v>
       </c>
       <c r="N11" t="n">
-        <v>2877.428556330836</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660291</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5094,64 +5094,64 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>399.0634049978502</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C13" t="n">
-        <v>230.1272220699433</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D13" t="n">
-        <v>230.1272220699433</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E13" t="n">
-        <v>230.1272220699433</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5212,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X13" t="n">
-        <v>619.8559841413803</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.0634049978502</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,22 +5279,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>722.4071781934688</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846824</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518748</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
         <v>4719.034655862919</v>
@@ -5331,64 +5331,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390113</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193582</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320235</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>818.429182877517</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C16" t="n">
-        <v>649.4929999496101</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D16" t="n">
-        <v>499.3763605372743</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E16" t="n">
-        <v>499.3763605372743</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5437,7 +5437,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.870226851287</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W16" t="n">
-        <v>1220.870226851287</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X16" t="n">
-        <v>1220.870226851287</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000.077647707757</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5489,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074201</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750622</v>
       </c>
       <c r="M17" t="n">
-        <v>2593.249184644075</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870722</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O17" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5595,22 +5595,22 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
@@ -5625,7 +5625,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>390.3640755286979</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C19" t="n">
-        <v>390.3640755286979</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
         <v>95.56103444839442</v>
@@ -5674,16 +5674,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O19" t="n">
         <v>1646.12566951853</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1418.006381145422</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1163.321892939535</v>
       </c>
       <c r="W19" t="n">
-        <v>909.2731541783409</v>
+        <v>873.9047229025747</v>
       </c>
       <c r="X19" t="n">
-        <v>681.2836032803235</v>
+        <v>645.9151720045573</v>
       </c>
       <c r="Y19" t="n">
-        <v>460.4910241367934</v>
+        <v>425.1225928610272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,46 +5726,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M20" t="n">
-        <v>2368.748013620957</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N20" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O20" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
         <v>4195.497197679678</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5832,13 +5832,13 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N21" t="n">
         <v>1715.000032008795</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>629.893403484314</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C22" t="n">
-        <v>460.9572205564072</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D22" t="n">
-        <v>460.9572205564072</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E22" t="n">
-        <v>313.044126974014</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F22" t="n">
-        <v>313.044126974014</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G22" t="n">
-        <v>145.341290348733</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5908,13 +5908,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431758</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U22" t="n">
-        <v>1355.643526557401</v>
+        <v>1445.473983799872</v>
       </c>
       <c r="V22" t="n">
-        <v>1100.959038351514</v>
+        <v>1190.789495593985</v>
       </c>
       <c r="W22" t="n">
-        <v>811.5418683145538</v>
+        <v>901.3723255570246</v>
       </c>
       <c r="X22" t="n">
-        <v>811.5418683145538</v>
+        <v>673.3827746590073</v>
       </c>
       <c r="Y22" t="n">
-        <v>811.5418683145538</v>
+        <v>452.5901955154771</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089262</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074201</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427198</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1465.885462454823</v>
+        <v>1586.925993846822</v>
       </c>
       <c r="M23" t="n">
-        <v>1999.417367126747</v>
+        <v>2120.457898518746</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353394</v>
+        <v>2667.236715577529</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6081,10 +6081,10 @@
         <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6130,16 +6130,16 @@
         <v>402.5293200614553</v>
       </c>
       <c r="E25" t="n">
-        <v>279.1461734407185</v>
+        <v>402.5293200614553</v>
       </c>
       <c r="F25" t="n">
-        <v>279.1461734407185</v>
+        <v>402.5293200614553</v>
       </c>
       <c r="G25" t="n">
-        <v>135.9732837770938</v>
+        <v>290.0440044888786</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>168.3567646683927</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6212,7 +6212,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6370,19 +6370,19 @@
         <v>533.5814564942664</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580124</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345486</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384031</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
         <v>483.825546038073</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
@@ -6643,19 +6643,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6862,7 +6862,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,25 +6880,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782709</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
-        <v>4503.800315021996</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>4503.800315021996</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,28 +7093,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N37" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931273</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,16 +7330,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7348,10 +7348,10 @@
         <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345477</v>
@@ -7564,28 +7564,28 @@
         <v>151.3734194384021</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954158</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380736</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231133</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7804,7 +7804,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7813,22 +7813,22 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>317.5146261106146</v>
+        <v>248.8400772687173</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>105.1996354507095</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9164,19 +9164,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>258.6211785616931</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>133.2530576400234</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,16 +9407,16 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>386.0843734984074</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>344.7025836476859</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>76.45227440777143</v>
+        <v>29.61882225791908</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>126.0340525412413</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>214.2620777235715</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>33.65558728882853</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,22 +22595,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>330.0882462036926</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,28 +22705,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.99214678739739</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,10 +22759,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>12.20052227759791</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>159.6457400831808</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.4945564668048</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>56.42469836828916</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.4063010599227</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,16 +23941,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>31.95930209741292</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>137.1539338988744</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>95.4725615729856</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>30.38069835013751</v>
       </c>
       <c r="H25" t="n">
-        <v>80.4622405868686</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>72.06777291779829</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26314,43 +26314,43 @@
         <v>35011.90913173268</v>
       </c>
       <c r="C2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321417</v>
       </c>
       <c r="D2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>39708.17868869831</v>
+        <v>39708.1786886983</v>
       </c>
       <c r="F2" t="n">
         <v>39708.1786886983</v>
       </c>
       <c r="G2" t="n">
+        <v>39708.1786886983</v>
+      </c>
+      <c r="H2" t="n">
         <v>39708.17868869831</v>
-      </c>
-      <c r="H2" t="n">
-        <v>39708.1786886983</v>
       </c>
       <c r="I2" t="n">
         <v>40402.9371974122</v>
       </c>
       <c r="J2" t="n">
-        <v>41052.08849321421</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="K2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="L2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="M2" t="n">
         <v>41052.08849321421</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.0884932142</v>
       </c>
       <c r="N2" t="n">
         <v>41052.0884932142</v>
       </c>
       <c r="O2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
         <v>41052.08849321419</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363181</v>
+        <v>19427.71799363246</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.1335735911</v>
+        <v>376527.133573591</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363182</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,19 +26421,19 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709189</v>
       </c>
       <c r="I4" t="n">
         <v>29610.46726018533</v>
@@ -26442,7 +26442,7 @@
         <v>12448.50789975161</v>
       </c>
       <c r="K4" t="n">
-        <v>12448.50789975162</v>
+        <v>12448.50789975161</v>
       </c>
       <c r="L4" t="n">
         <v>12448.50789975161</v>
@@ -26451,10 +26451,10 @@
         <v>12448.5078997516</v>
       </c>
       <c r="N4" t="n">
+        <v>12448.5078997516</v>
+      </c>
+      <c r="O4" t="n">
         <v>12448.50789975159</v>
-      </c>
-      <c r="O4" t="n">
-        <v>12448.50789975161</v>
       </c>
       <c r="P4" t="n">
         <v>12448.50789975159</v>
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>98425.10428372196</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-761070.9343374495</v>
+        <v>-761372.9433055235</v>
       </c>
       <c r="C6" t="n">
         <v>-234013.585962625</v>
@@ -26528,37 +26528,37 @@
         <v>-234013.585962625</v>
       </c>
       <c r="E6" t="n">
-        <v>-805672.3615555138</v>
+        <v>-805739.5570457395</v>
       </c>
       <c r="F6" t="n">
-        <v>-78294.94756210718</v>
+        <v>-78362.14305233298</v>
       </c>
       <c r="G6" t="n">
-        <v>-78294.94756210721</v>
+        <v>-78362.14305233302</v>
       </c>
       <c r="H6" t="n">
-        <v>-78294.94756210722</v>
+        <v>-78362.14305233234</v>
       </c>
       <c r="I6" t="n">
-        <v>-107060.3523401269</v>
+        <v>-107092.8099049176</v>
       </c>
       <c r="J6" t="n">
         <v>-451087.6688340438</v>
       </c>
       <c r="K6" t="n">
-        <v>-74560.53526045283</v>
+        <v>-74560.53526045282</v>
       </c>
       <c r="L6" t="n">
-        <v>-74560.53526045277</v>
+        <v>-74560.53526045282</v>
       </c>
       <c r="M6" t="n">
-        <v>-204202.8500993975</v>
+        <v>-204202.8500993976</v>
       </c>
       <c r="N6" t="n">
-        <v>-93988.2532540846</v>
+        <v>-93988.25325408459</v>
       </c>
       <c r="O6" t="n">
-        <v>-74560.53526045285</v>
+        <v>-74560.53526045274</v>
       </c>
       <c r="P6" t="n">
         <v>-74560.5352604528</v>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203976</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203967</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26923,10 +26923,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="J3" t="n">
         <v>278.198799748375</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.4826302492738</v>
+        <v>652.4826302492737</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>256.6997891222393</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>39.64285447477641</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>249.2107227435827</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>7.983128723806715</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>173.0173382214838</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>115.2594492617797</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>155.3965805440967</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>3.733913147197427</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>10.93415690577785</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27907,19 +27907,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>39.34848094147682</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>45.16002594397379</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28032,7 +28032,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.343281041954469e-12</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233463</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683794</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32801,13 +32801,13 @@
         <v>609.6478166837927</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970236</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905542</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218309</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,16 +33269,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O33" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,28 +33734,28 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.903832042181</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N39" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,28 +34208,28 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,7 +34454,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>452.3405299254388</v>
+        <v>575.5951359912046</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,10 +34466,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>856.4357419408414</v>
+        <v>787.7611930989439</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>442.39092200611</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M17" t="n">
-        <v>797.5422943919199</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248959</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013279</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>938.3862089113189</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359047</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004607</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265655</v>
       </c>
       <c r="L23" t="n">
-        <v>532.0423888001038</v>
+        <v>485.2089366502515</v>
       </c>
       <c r="M23" t="n">
         <v>538.921115830227</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248959</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882195</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908547</v>
@@ -36379,7 +36379,7 @@
         <v>463.1092954636244</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36449,13 +36449,13 @@
         <v>478.3061046004594</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525793</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>69.86306410510605</v>
+        <v>69.86306410510603</v>
       </c>
       <c r="K25" t="n">
         <v>230.3323070363594</v>
@@ -36607,10 +36607,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419567</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36762,7 +36762,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
         <v>397.5465471980852</v>
@@ -36847,13 +36847,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,16 +36917,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -36999,7 +36999,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
         <v>397.5465471980852</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O33" t="n">
-        <v>128.5512458942248</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561594</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N39" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,7 +38102,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>310.2064960034205</v>
+        <v>433.4611020691863</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,10 +38114,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
